--- a/MOUNTA.45/production files/MOUNTA.45.BOM.xlsx
+++ b/MOUNTA.45/production files/MOUNTA.45.BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,17 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Product Name:</t>
   </si>
   <si>
-    <t>Mounting Bracket A</t>
+    <t>Mounting Bracket A 45 degree  (VER 1.0 REV A)</t>
   </si>
   <si>
     <t>Tag:</t>
   </si>
   <si>
+    <t>MOUNTA.45.v1.0</t>
+  </si>
+  <si>
     <t>Product Number:</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>Ponoko</t>
+  </si>
+  <si>
+    <t>See README for production details</t>
   </si>
 </sst>
 </file>
@@ -232,10 +238,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -264,7 +270,9 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -276,17 +284,17 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="8" t="n">
-        <v>42131</v>
+        <v>42145</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -302,10 +310,10 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>42131</v>
+        <v>42145</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -347,28 +355,28 @@
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="3"/>
@@ -381,20 +389,26 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>42145</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -418,12 +432,13 @@
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="0.996527777777778" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;"Arial,Regular"POSCON.BOM</oddHeader>
+    <oddHeader>&amp;L&amp;"Arial,Regular"MOUNTA.45.BOM</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/MOUNTA.45/production files/MOUNTA.45.BOM.xlsx
+++ b/MOUNTA.45/production files/MOUNTA.45.BOM.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Designer\Documents\GitHub\MOUNTA\MOUNTA.45\production files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Product Name:</t>
   </si>
@@ -72,38 +76,21 @@
   </si>
   <si>
     <t>See README for production details</t>
+  </si>
+  <si>
+    <t>MOUNTA.45.v1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -112,7 +99,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -140,125 +127,369 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.37777777777778"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.6259259259259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.6259259259259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.6259259259259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="77.1259259259259"/>
-    <col collapsed="false" hidden="false" max="256" min="9" style="1" width="8.25185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="2" width="8.25185185185185"/>
+    <col min="1" max="1" width="5.3984375" style="1"/>
+    <col min="2" max="2" width="22.3984375" style="1"/>
+    <col min="3" max="3" width="31" style="1"/>
+    <col min="4" max="4" width="19.59765625" style="1"/>
+    <col min="5" max="5" width="18.59765625" style="1"/>
+    <col min="6" max="6" width="10.5" style="1"/>
+    <col min="7" max="7" width="13.59765625" style="1"/>
+    <col min="8" max="8" width="77.09765625" style="1"/>
+    <col min="9" max="256" width="8.19921875" style="1"/>
+    <col min="257" max="1025" width="8.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -271,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -281,7 +512,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -293,7 +524,7 @@
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="8">
         <v>42145</v>
       </c>
       <c r="G2" s="6"/>
@@ -304,7 +535,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -312,7 +543,7 @@
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="8">
         <v>42145</v>
       </c>
       <c r="G3" s="6"/>
@@ -323,7 +554,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -338,7 +569,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -353,7 +584,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -384,8 +615,8 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -400,7 +631,7 @@
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="8">
         <v>42145</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -415,29 +646,27 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="0.996527777777778" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.75" right="0.75" top="0.99652777777777801" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Regular"MOUNTA.45.BOM</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
   </headerFooter>

--- a/MOUNTA.45/production files/MOUNTA.45.BOM.xlsx
+++ b/MOUNTA.45/production files/MOUNTA.45.BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Designer\Documents\GitHub\MOUNTA\MOUNTA.45\production files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Designer\Documents\GitHub\MOUNTA\MOUNTA.45\Production Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,20 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Product Name:</t>
   </si>
   <si>
-    <t>Mounting Bracket A 45 degree  (VER 1.0 REV A)</t>
-  </si>
-  <si>
     <t>Tag:</t>
   </si>
   <si>
-    <t>MOUNTA.45.v1.0</t>
-  </si>
-  <si>
     <t>Product Number:</t>
   </si>
   <si>
@@ -79,6 +73,9 @@
   </si>
   <si>
     <t>MOUNTA.45.v1.1</t>
+  </si>
+  <si>
+    <t>Mounting Bracket A 45 degree  (VER 1.1 REV A)</t>
   </si>
 </sst>
 </file>
@@ -472,7 +469,7 @@
   <dimension ref="A1:AMK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -489,20 +486,20 @@
     <col min="257" max="1025" width="8.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -515,14 +512,14 @@
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="8">
         <v>42145</v>
@@ -541,10 +538,10 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="8">
-        <v>42145</v>
+        <v>42397</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -586,28 +583,28 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="3"/>
@@ -620,25 +617,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42397</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>42145</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="3"/>
